--- a/Files/Vaccine_January 7, 2005.xlsx
+++ b/Files/Vaccine_January 7, 2005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="143">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP</t>
+    <t xml:space="preserve">DTaP/</t>
   </si>
   <si>
     <t xml:space="preserve">Tripedia</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">$70.72</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP </t>
+    <t xml:space="preserve">DTaP-Hib </t>
   </si>
   <si>
     <t xml:space="preserve">TriHIBit</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">$21.80</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B^</t>
+    <t xml:space="preserve">Hepatitis B-Hib</t>
   </si>
   <si>
     <t xml:space="preserve">COMVAX</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">5 pack - 1 dose T-L syringes, No Needle</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult^</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult</t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -221,22 +221,31 @@
     <t xml:space="preserve">$78.42</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only^</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hepatitis B PediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hepatitis B Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX B</t>
   </si>
   <si>
-    <t xml:space="preserve">1 dose vials 10 pack - 1 dose vials 5 pack - 1 dose T-L syringes, No Needle 25 pack - 1 dose T-L syringes, No Needle </t>
+    <t xml:space="preserve">1 dose vials </t>
   </si>
   <si>
     <t xml:space="preserve">$9.50</t>
   </si>
   <si>
     <t xml:space="preserve">$21.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 pack - 1 dose vials </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 pack - 1 dose T-L syringes, No Needle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 pack - 1 dose T-L syringes, No Needle </t>
   </si>
   <si>
     <t xml:space="preserve">RECOMBIVAX HB</t>
@@ -334,7 +343,7 @@
     <t xml:space="preserve">Chiron Corporation</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza(Live, Intranasal)</t>
+    <t xml:space="preserve">Influenza (Live, Intranasal)</t>
   </si>
   <si>
     <t xml:space="preserve">FluMist</t>
@@ -353,7 +362,7 @@
     <t xml:space="preserve">MedImmune Vaccines, Inc.</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR</t>
+    <t xml:space="preserve">MMR/</t>
   </si>
   <si>
     <t xml:space="preserve">MMRII</t>
@@ -365,7 +374,7 @@
     <t xml:space="preserve">$38.05</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal7-valent (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 7-valent (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar</t>
@@ -395,7 +404,7 @@
     <t xml:space="preserve">$24.19</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus  Diphtheria Toxoids^</t>
+    <t xml:space="preserve">Tetanus  Diphtheria Toxoids</t>
   </si>
   <si>
     <t xml:space="preserve">Tetanus  Diphtheria Toxoids Adsorbed for Adults</t>
@@ -1350,7 +1359,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
         <v>73</v>
@@ -1379,7 +1388,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E29" t="s">
         <v>73</v>
@@ -1408,7 +1417,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
         <v>73</v>
@@ -1431,7 +1440,7 @@
         <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -1440,10 +1449,10 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G31" s="1">
         <v>38442</v>
@@ -1457,10 +1466,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
         <v>78</v>
-      </c>
-      <c r="B32" t="s">
-        <v>75</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -1469,10 +1478,10 @@
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G32" s="1">
         <v>38442</v>
@@ -1486,10 +1495,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1498,10 +1507,10 @@
         <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F33" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G33" s="1">
         <v>38533</v>
@@ -1515,10 +1524,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1527,10 +1536,10 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G34" s="1">
         <v>38533</v>
@@ -1544,10 +1553,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1556,10 +1565,10 @@
         <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G35" s="1">
         <v>38533</v>
@@ -1573,10 +1582,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1585,10 +1594,10 @@
         <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G36" s="1">
         <v>38533</v>
@@ -1602,22 +1611,22 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G37" s="1">
         <v>38533</v>
@@ -1631,10 +1640,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -1643,10 +1652,10 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F38" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G38" s="1">
         <v>38442</v>
@@ -1660,10 +1669,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -1672,10 +1681,10 @@
         <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F39" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G39" s="1">
         <v>38442</v>
@@ -1689,10 +1698,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
@@ -1701,10 +1710,10 @@
         <v>36</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G40" s="1">
         <v>38472</v>
@@ -1718,22 +1727,22 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F41" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G41" s="1">
         <v>38472</v>
@@ -1747,10 +1756,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
@@ -1759,16 +1768,16 @@
         <v>36</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F42" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G42" s="1">
         <v>38472</v>
       </c>
       <c r="H42" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I42" t="s">
         <v>11</v>
@@ -1776,28 +1785,28 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F43" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G43" s="1">
         <v>38442</v>
       </c>
       <c r="H43" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I43" t="s">
         <v>11</v>
@@ -1805,10 +1814,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
@@ -1817,10 +1826,10 @@
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F44" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G44" s="1">
         <v>38442</v>
@@ -1834,10 +1843,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
@@ -1846,16 +1855,16 @@
         <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F45" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G45" s="1">
         <v>38442</v>
       </c>
       <c r="H45" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I45" t="s">
         <v>11</v>
@@ -1863,22 +1872,22 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E46" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F46" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G46" s="1">
         <v>38533</v>
@@ -1892,28 +1901,28 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F47" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G47" s="1">
         <v>38533</v>
       </c>
       <c r="H47" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I47" t="s">
         <v>11</v>
@@ -1921,22 +1930,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F48" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G48" s="1">
         <v>38442</v>
@@ -1950,10 +1959,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -1962,10 +1971,10 @@
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F49" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G49" s="1">
         <v>38442</v>

--- a/Files/Vaccine_January 7, 2005.xlsx
+++ b/Files/Vaccine_January 7, 2005.xlsx
@@ -89,7 +89,7 @@
     <t xml:space="preserve">$21.44</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV*</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV</t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -320,9 +320,7 @@
     <t xml:space="preserve">$8.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-Pediatric dose
-Preservative-free</t>
+    <t xml:space="preserve">Fluzone Pediatric dose Preservative-free</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose syringes</t>
@@ -349,8 +347,7 @@
     <t xml:space="preserve">FluMist</t>
   </si>
   <si>
-    <t xml:space="preserve">Pack of 10
-Single-dose Sprayers</t>
+    <t xml:space="preserve">Pack of 10 Single-dose Sprayers</t>
   </si>
   <si>
     <t xml:space="preserve">$13.49</t>
@@ -425,8 +422,7 @@
     <t xml:space="preserve">DECAVAC</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose syringes
-No Needle</t>
+    <t xml:space="preserve">10 pack - 1 dose syringes No Needle</t>
   </si>
   <si>
     <t xml:space="preserve">$15.90</t>
